--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Liph-Lpar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Liph-Lpar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Liph</t>
+  </si>
+  <si>
+    <t>Lpar1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Liph</t>
-  </si>
-  <si>
-    <t>Lpar1</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,40 +543,40 @@
         <v>0.137318</v>
       </c>
       <c r="I2">
-        <v>0.5662271044145905</v>
+        <v>0.6974138631561839</v>
       </c>
       <c r="J2">
-        <v>0.5662271044145906</v>
+        <v>0.697413863156184</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1418333333333333</v>
+        <v>0.3268783333333333</v>
       </c>
       <c r="N2">
-        <v>0.4255</v>
+        <v>0.9806349999999999</v>
       </c>
       <c r="O2">
-        <v>0.001609177328531689</v>
+        <v>0.003643071043709958</v>
       </c>
       <c r="P2">
-        <v>0.001609177328531689</v>
+        <v>0.003643071043709957</v>
       </c>
       <c r="Q2">
-        <v>0.006492089888888888</v>
+        <v>0.01496209299222222</v>
       </c>
       <c r="R2">
-        <v>0.058428809</v>
+        <v>0.13465883693</v>
       </c>
       <c r="S2">
-        <v>0.0009111598192241045</v>
+        <v>0.002540728250346192</v>
       </c>
       <c r="T2">
-        <v>0.0009111598192241046</v>
+        <v>0.002540728250346193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,10 +605,10 @@
         <v>0.137318</v>
       </c>
       <c r="I3">
-        <v>0.5662271044145905</v>
+        <v>0.6974138631561839</v>
       </c>
       <c r="J3">
-        <v>0.5662271044145906</v>
+        <v>0.697413863156184</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>73.66398133333334</v>
+        <v>73.66398133333333</v>
       </c>
       <c r="N3">
         <v>220.991944</v>
       </c>
       <c r="O3">
-        <v>0.8357584631561567</v>
+        <v>0.820987780447947</v>
       </c>
       <c r="P3">
-        <v>0.8357584631561568</v>
+        <v>0.820987780447947</v>
       </c>
       <c r="Q3">
         <v>3.371796862910222</v>
@@ -635,10 +635,10 @@
         <v>30.346171766192</v>
       </c>
       <c r="S3">
-        <v>0.4732290945828987</v>
+        <v>0.5725682595662237</v>
       </c>
       <c r="T3">
-        <v>0.4732290945828989</v>
+        <v>0.5725682595662237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.137318</v>
       </c>
       <c r="I4">
-        <v>0.5662271044145905</v>
+        <v>0.6974138631561839</v>
       </c>
       <c r="J4">
-        <v>0.5662271044145906</v>
+        <v>0.697413863156184</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.79710433333334</v>
+        <v>15.26610033333333</v>
       </c>
       <c r="N4">
-        <v>41.391313</v>
+        <v>45.798301</v>
       </c>
       <c r="O4">
-        <v>0.1565357520041339</v>
+        <v>0.1701412495211907</v>
       </c>
       <c r="P4">
-        <v>0.1565357520041339</v>
+        <v>0.1701412495211906</v>
       </c>
       <c r="Q4">
-        <v>0.6315302576148889</v>
+        <v>0.6987701218575555</v>
       </c>
       <c r="R4">
-        <v>5.683772318534</v>
+        <v>6.288931096717999</v>
       </c>
       <c r="S4">
-        <v>0.08863478559466118</v>
+        <v>0.1186588661107938</v>
       </c>
       <c r="T4">
-        <v>0.08863478559466119</v>
+        <v>0.1186588661107938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,40 +729,40 @@
         <v>0.137318</v>
       </c>
       <c r="I5">
-        <v>0.5662271044145905</v>
+        <v>0.6974138631561839</v>
       </c>
       <c r="J5">
-        <v>0.5662271044145906</v>
+        <v>0.697413863156184</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.5373566666666667</v>
+        <v>0.4690786666666667</v>
       </c>
       <c r="N5">
-        <v>1.61207</v>
+        <v>1.407236</v>
       </c>
       <c r="O5">
-        <v>0.006096607511177627</v>
+        <v>0.005227898987152434</v>
       </c>
       <c r="P5">
-        <v>0.006096607511177628</v>
+        <v>0.005227898987152434</v>
       </c>
       <c r="Q5">
-        <v>0.02459624758444445</v>
+        <v>0.02147098144977778</v>
       </c>
       <c r="R5">
-        <v>0.22136622826</v>
+        <v>0.193238833048</v>
       </c>
       <c r="S5">
-        <v>0.003452064417806351</v>
+        <v>0.00364600922882028</v>
       </c>
       <c r="T5">
-        <v>0.003452064417806351</v>
+        <v>0.00364600922882028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>0.059578</v>
       </c>
       <c r="I6">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="J6">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1418333333333333</v>
+        <v>0.3268783333333333</v>
       </c>
       <c r="N6">
-        <v>0.4255</v>
+        <v>0.9806349999999999</v>
       </c>
       <c r="O6">
-        <v>0.001609177328531689</v>
+        <v>0.003643071043709958</v>
       </c>
       <c r="P6">
-        <v>0.001609177328531689</v>
+        <v>0.003643071043709957</v>
       </c>
       <c r="Q6">
-        <v>0.002816715444444444</v>
+        <v>0.006491585781111111</v>
       </c>
       <c r="R6">
-        <v>0.025350439</v>
+        <v>0.05842427202999999</v>
       </c>
       <c r="S6">
-        <v>0.0003953238447234427</v>
+        <v>0.001102342793363765</v>
       </c>
       <c r="T6">
-        <v>0.0003953238447234427</v>
+        <v>0.001102342793363765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>0.059578</v>
       </c>
       <c r="I7">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="J7">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>73.66398133333334</v>
+        <v>73.66398133333333</v>
       </c>
       <c r="N7">
         <v>220.991944</v>
       </c>
       <c r="O7">
-        <v>0.8357584631561567</v>
+        <v>0.820987780447947</v>
       </c>
       <c r="P7">
-        <v>0.8357584631561568</v>
+        <v>0.820987780447947</v>
       </c>
       <c r="Q7">
         <v>1.462917559959111</v>
@@ -883,10 +883,10 @@
         <v>13.166258039632</v>
       </c>
       <c r="S7">
-        <v>0.2053193535957409</v>
+        <v>0.2484195208817233</v>
       </c>
       <c r="T7">
-        <v>0.2053193535957409</v>
+        <v>0.2484195208817233</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,10 +915,10 @@
         <v>0.059578</v>
       </c>
       <c r="I8">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="J8">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.79710433333334</v>
+        <v>15.26610033333333</v>
       </c>
       <c r="N8">
-        <v>41.391313</v>
+        <v>45.798301</v>
       </c>
       <c r="O8">
-        <v>0.1565357520041339</v>
+        <v>0.1701412495211907</v>
       </c>
       <c r="P8">
-        <v>0.1565357520041339</v>
+        <v>0.1701412495211906</v>
       </c>
       <c r="Q8">
-        <v>0.2740012939904445</v>
+        <v>0.3031745752197778</v>
       </c>
       <c r="R8">
-        <v>2.466011645914</v>
+        <v>2.728571176977999</v>
       </c>
       <c r="S8">
-        <v>0.03845587072458617</v>
+        <v>0.05148238341039685</v>
       </c>
       <c r="T8">
-        <v>0.03845587072458617</v>
+        <v>0.05148238341039684</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -977,288 +977,40 @@
         <v>0.059578</v>
       </c>
       <c r="I9">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="J9">
-        <v>0.2456682913151406</v>
+        <v>0.302586136843816</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.5373566666666667</v>
+        <v>0.4690786666666667</v>
       </c>
       <c r="N9">
-        <v>1.61207</v>
+        <v>1.407236</v>
       </c>
       <c r="O9">
-        <v>0.006096607511177627</v>
+        <v>0.005227898987152434</v>
       </c>
       <c r="P9">
-        <v>0.006096607511177628</v>
+        <v>0.005227898987152434</v>
       </c>
       <c r="Q9">
-        <v>0.01067154516222222</v>
+        <v>0.00931558960088889</v>
       </c>
       <c r="R9">
-        <v>0.09604390646000001</v>
+        <v>0.08384030640800001</v>
       </c>
       <c r="S9">
-        <v>0.001497743150090059</v>
+        <v>0.001581889758332154</v>
       </c>
       <c r="T9">
-        <v>0.00149774315009006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.015206</v>
-      </c>
-      <c r="H10">
-        <v>0.045618</v>
-      </c>
-      <c r="I10">
-        <v>0.1881046042702689</v>
-      </c>
-      <c r="J10">
-        <v>0.188104604270269</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.1418333333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.4255</v>
-      </c>
-      <c r="O10">
-        <v>0.001609177328531689</v>
-      </c>
-      <c r="P10">
-        <v>0.001609177328531689</v>
-      </c>
-      <c r="Q10">
-        <v>0.002156717666666667</v>
-      </c>
-      <c r="R10">
-        <v>0.019410459</v>
-      </c>
-      <c r="S10">
-        <v>0.0003026936645841419</v>
-      </c>
-      <c r="T10">
-        <v>0.0003026936645841419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.015206</v>
-      </c>
-      <c r="H11">
-        <v>0.045618</v>
-      </c>
-      <c r="I11">
-        <v>0.1881046042702689</v>
-      </c>
-      <c r="J11">
-        <v>0.188104604270269</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>73.66398133333334</v>
-      </c>
-      <c r="N11">
-        <v>220.991944</v>
-      </c>
-      <c r="O11">
-        <v>0.8357584631561567</v>
-      </c>
-      <c r="P11">
-        <v>0.8357584631561568</v>
-      </c>
-      <c r="Q11">
-        <v>1.120134500154667</v>
-      </c>
-      <c r="R11">
-        <v>10.081210501392</v>
-      </c>
-      <c r="S11">
-        <v>0.157210014977517</v>
-      </c>
-      <c r="T11">
-        <v>0.157210014977517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.015206</v>
-      </c>
-      <c r="H12">
-        <v>0.045618</v>
-      </c>
-      <c r="I12">
-        <v>0.1881046042702689</v>
-      </c>
-      <c r="J12">
-        <v>0.188104604270269</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>13.79710433333334</v>
-      </c>
-      <c r="N12">
-        <v>41.391313</v>
-      </c>
-      <c r="O12">
-        <v>0.1565357520041339</v>
-      </c>
-      <c r="P12">
-        <v>0.1565357520041339</v>
-      </c>
-      <c r="Q12">
-        <v>0.2097987684926667</v>
-      </c>
-      <c r="R12">
-        <v>1.888188916434</v>
-      </c>
-      <c r="S12">
-        <v>0.02944509568488657</v>
-      </c>
-      <c r="T12">
-        <v>0.02944509568488657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.015206</v>
-      </c>
-      <c r="H13">
-        <v>0.045618</v>
-      </c>
-      <c r="I13">
-        <v>0.1881046042702689</v>
-      </c>
-      <c r="J13">
-        <v>0.188104604270269</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.5373566666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.61207</v>
-      </c>
-      <c r="O13">
-        <v>0.006096607511177627</v>
-      </c>
-      <c r="P13">
-        <v>0.006096607511177628</v>
-      </c>
-      <c r="Q13">
-        <v>0.008171045473333333</v>
-      </c>
-      <c r="R13">
-        <v>0.07353940926000001</v>
-      </c>
-      <c r="S13">
-        <v>0.001146799943281217</v>
-      </c>
-      <c r="T13">
-        <v>0.001146799943281217</v>
+        <v>0.001581889758332154</v>
       </c>
     </row>
   </sheetData>
